--- a/Team-Data/2012-13/3-10-2012-13.xlsx
+++ b/Team-Data/2012-13/3-10-2012-13.xlsx
@@ -50,7 +50,6 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom style="thin"/>
-      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
@@ -66,6 +65,74 @@
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -744,19 +811,19 @@
         <v>0.6</v>
       </c>
       <c r="AD2" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="AE2" t="n">
         <v>12</v>
       </c>
       <c r="AF2" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="AG2" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AH2" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AI2" t="n">
         <v>11</v>
@@ -792,7 +859,7 @@
         <v>12</v>
       </c>
       <c r="AT2" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AU2" t="n">
         <v>3</v>
@@ -831,7 +898,7 @@
       </c>
       <c r="BF2" t="inlineStr">
         <is>
-          <t>3-10-2012-13</t>
+          <t>2013-03-10</t>
         </is>
       </c>
     </row>
@@ -848,34 +915,34 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E3" t="n">
         <v>34</v>
       </c>
       <c r="F3" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G3" t="n">
-        <v>0.548</v>
+        <v>0.5570000000000001</v>
       </c>
       <c r="H3" t="n">
         <v>49.3</v>
       </c>
       <c r="I3" t="n">
-        <v>36.9</v>
+        <v>37.1</v>
       </c>
       <c r="J3" t="n">
-        <v>80.5</v>
+        <v>80.59999999999999</v>
       </c>
       <c r="K3" t="n">
-        <v>0.459</v>
+        <v>0.46</v>
       </c>
       <c r="L3" t="n">
         <v>5.9</v>
       </c>
       <c r="M3" t="n">
-        <v>17</v>
+        <v>16.9</v>
       </c>
       <c r="N3" t="n">
         <v>0.35</v>
@@ -887,19 +954,19 @@
         <v>20.8</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.781</v>
+        <v>0.782</v>
       </c>
       <c r="R3" t="n">
-        <v>8.4</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="S3" t="n">
         <v>31.8</v>
       </c>
       <c r="T3" t="n">
-        <v>40.2</v>
+        <v>40.1</v>
       </c>
       <c r="U3" t="n">
-        <v>23.1</v>
+        <v>23.2</v>
       </c>
       <c r="V3" t="n">
         <v>14.5</v>
@@ -920,13 +987,13 @@
         <v>19.7</v>
       </c>
       <c r="AB3" t="n">
-        <v>96</v>
+        <v>96.3</v>
       </c>
       <c r="AC3" t="n">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="AD3" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AE3" t="n">
         <v>12</v>
@@ -941,7 +1008,7 @@
         <v>1</v>
       </c>
       <c r="AI3" t="n">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="AJ3" t="n">
         <v>26</v>
@@ -959,13 +1026,13 @@
         <v>22</v>
       </c>
       <c r="AO3" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AP3" t="n">
         <v>23</v>
       </c>
       <c r="AQ3" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AR3" t="n">
         <v>29</v>
@@ -980,7 +1047,7 @@
         <v>7</v>
       </c>
       <c r="AV3" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AW3" t="n">
         <v>7</v>
@@ -995,7 +1062,7 @@
         <v>27</v>
       </c>
       <c r="BA3" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="BB3" t="n">
         <v>18</v>
@@ -1013,7 +1080,7 @@
       </c>
       <c r="BF3" t="inlineStr">
         <is>
-          <t>3-10-2012-13</t>
+          <t>2013-03-10</t>
         </is>
       </c>
     </row>
@@ -1108,7 +1175,7 @@
         <v>0.9</v>
       </c>
       <c r="AD4" t="n">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="AE4" t="n">
         <v>9</v>
@@ -1141,7 +1208,7 @@
         <v>12</v>
       </c>
       <c r="AO4" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AP4" t="n">
         <v>8</v>
@@ -1195,7 +1262,7 @@
       </c>
       <c r="BF4" t="inlineStr">
         <is>
-          <t>3-10-2012-13</t>
+          <t>2013-03-10</t>
         </is>
       </c>
     </row>
@@ -1290,7 +1357,7 @@
         <v>-10.6</v>
       </c>
       <c r="AD5" t="n">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="AE5" t="n">
         <v>30</v>
@@ -1302,7 +1369,7 @@
         <v>30</v>
       </c>
       <c r="AH5" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AI5" t="n">
         <v>30</v>
@@ -1356,7 +1423,7 @@
         <v>30</v>
       </c>
       <c r="AZ5" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="BA5" t="n">
         <v>5</v>
@@ -1377,7 +1444,7 @@
       </c>
       <c r="BF5" t="inlineStr">
         <is>
-          <t>3-10-2012-13</t>
+          <t>2013-03-10</t>
         </is>
       </c>
     </row>
@@ -1394,16 +1461,16 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E6" t="n">
         <v>35</v>
       </c>
       <c r="F6" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G6" t="n">
-        <v>0.556</v>
+        <v>0.5649999999999999</v>
       </c>
       <c r="H6" t="n">
         <v>48.3</v>
@@ -1412,40 +1479,40 @@
         <v>35.3</v>
       </c>
       <c r="J6" t="n">
-        <v>81.3</v>
+        <v>81.2</v>
       </c>
       <c r="K6" t="n">
-        <v>0.434</v>
+        <v>0.435</v>
       </c>
       <c r="L6" t="n">
         <v>4.9</v>
       </c>
       <c r="M6" t="n">
-        <v>14.3</v>
+        <v>14.2</v>
       </c>
       <c r="N6" t="n">
-        <v>0.342</v>
+        <v>0.344</v>
       </c>
       <c r="O6" t="n">
-        <v>16.8</v>
+        <v>16.9</v>
       </c>
       <c r="P6" t="n">
-        <v>21.4</v>
+        <v>21.5</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.785</v>
+        <v>0.784</v>
       </c>
       <c r="R6" t="n">
-        <v>12.9</v>
+        <v>12.8</v>
       </c>
       <c r="S6" t="n">
-        <v>30.6</v>
+        <v>30.7</v>
       </c>
       <c r="T6" t="n">
         <v>43.5</v>
       </c>
       <c r="U6" t="n">
-        <v>22.8</v>
+        <v>22.9</v>
       </c>
       <c r="V6" t="n">
         <v>14.7</v>
@@ -1460,19 +1527,19 @@
         <v>5.9</v>
       </c>
       <c r="Z6" t="n">
-        <v>19.5</v>
+        <v>19.6</v>
       </c>
       <c r="AA6" t="n">
-        <v>19.9</v>
+        <v>20</v>
       </c>
       <c r="AB6" t="n">
-        <v>92.3</v>
+        <v>92.5</v>
       </c>
       <c r="AC6" t="n">
-        <v>0.9</v>
+        <v>1.1</v>
       </c>
       <c r="AD6" t="n">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="AE6" t="n">
         <v>10</v>
@@ -1490,10 +1557,10 @@
         <v>25</v>
       </c>
       <c r="AJ6" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AK6" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AL6" t="n">
         <v>29</v>
@@ -1508,16 +1575,16 @@
         <v>17</v>
       </c>
       <c r="AP6" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AQ6" t="n">
         <v>5</v>
       </c>
       <c r="AR6" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AS6" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AT6" t="n">
         <v>6</v>
@@ -1541,13 +1608,13 @@
         <v>13</v>
       </c>
       <c r="BA6" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="BB6" t="n">
         <v>28</v>
       </c>
       <c r="BC6" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="BD6" t="n">
         <v>10</v>
@@ -1559,7 +1626,7 @@
       </c>
       <c r="BF6" t="inlineStr">
         <is>
-          <t>3-10-2012-13</t>
+          <t>2013-03-10</t>
         </is>
       </c>
     </row>
@@ -1576,16 +1643,16 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E7" t="n">
         <v>21</v>
       </c>
       <c r="F7" t="n">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G7" t="n">
-        <v>0.333</v>
+        <v>0.339</v>
       </c>
       <c r="H7" t="n">
         <v>48.2</v>
@@ -1594,16 +1661,16 @@
         <v>36.5</v>
       </c>
       <c r="J7" t="n">
-        <v>84.09999999999999</v>
+        <v>84</v>
       </c>
       <c r="K7" t="n">
-        <v>0.434</v>
+        <v>0.435</v>
       </c>
       <c r="L7" t="n">
         <v>7</v>
       </c>
       <c r="M7" t="n">
-        <v>19.9</v>
+        <v>19.8</v>
       </c>
       <c r="N7" t="n">
         <v>0.354</v>
@@ -1615,16 +1682,16 @@
         <v>23</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.761</v>
+        <v>0.764</v>
       </c>
       <c r="R7" t="n">
-        <v>12.4</v>
+        <v>12.5</v>
       </c>
       <c r="S7" t="n">
-        <v>28.3</v>
+        <v>28.2</v>
       </c>
       <c r="T7" t="n">
-        <v>40.7</v>
+        <v>40.6</v>
       </c>
       <c r="U7" t="n">
         <v>20.6</v>
@@ -1642,7 +1709,7 @@
         <v>7.2</v>
       </c>
       <c r="Z7" t="n">
-        <v>21.2</v>
+        <v>21</v>
       </c>
       <c r="AA7" t="n">
         <v>20.2</v>
@@ -1654,16 +1721,16 @@
         <v>-3.5</v>
       </c>
       <c r="AD7" t="n">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="AE7" t="n">
+        <v>25</v>
+      </c>
+      <c r="AF7" t="n">
+        <v>23</v>
+      </c>
+      <c r="AG7" t="n">
         <v>26</v>
-      </c>
-      <c r="AF7" t="n">
-        <v>25</v>
-      </c>
-      <c r="AG7" t="n">
-        <v>27</v>
       </c>
       <c r="AH7" t="n">
         <v>27</v>
@@ -1675,7 +1742,7 @@
         <v>4</v>
       </c>
       <c r="AK7" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AL7" t="n">
         <v>15</v>
@@ -1687,13 +1754,13 @@
         <v>20</v>
       </c>
       <c r="AO7" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AP7" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AQ7" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AR7" t="n">
         <v>8</v>
@@ -1702,7 +1769,7 @@
         <v>30</v>
       </c>
       <c r="AT7" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AU7" t="n">
         <v>26</v>
@@ -1720,7 +1787,7 @@
         <v>29</v>
       </c>
       <c r="AZ7" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="BA7" t="n">
         <v>13</v>
@@ -1741,7 +1808,7 @@
       </c>
       <c r="BF7" t="inlineStr">
         <is>
-          <t>3-10-2012-13</t>
+          <t>2013-03-10</t>
         </is>
       </c>
     </row>
@@ -1758,25 +1825,25 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E8" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F8" t="n">
         <v>33</v>
       </c>
       <c r="G8" t="n">
-        <v>0.468</v>
+        <v>0.459</v>
       </c>
       <c r="H8" t="n">
         <v>48.8</v>
       </c>
       <c r="I8" t="n">
-        <v>38.5</v>
+        <v>38.4</v>
       </c>
       <c r="J8" t="n">
-        <v>84.3</v>
+        <v>84.09999999999999</v>
       </c>
       <c r="K8" t="n">
         <v>0.457</v>
@@ -1791,31 +1858,31 @@
         <v>0.37</v>
       </c>
       <c r="O8" t="n">
-        <v>16.8</v>
+        <v>17</v>
       </c>
       <c r="P8" t="n">
-        <v>21.3</v>
+        <v>21.5</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.792</v>
+        <v>0.791</v>
       </c>
       <c r="R8" t="n">
-        <v>9.5</v>
+        <v>9.4</v>
       </c>
       <c r="S8" t="n">
-        <v>32.9</v>
+        <v>32.7</v>
       </c>
       <c r="T8" t="n">
-        <v>42.4</v>
+        <v>42.1</v>
       </c>
       <c r="U8" t="n">
         <v>23</v>
       </c>
       <c r="V8" t="n">
-        <v>14.2</v>
+        <v>14.3</v>
       </c>
       <c r="W8" t="n">
-        <v>7.9</v>
+        <v>8</v>
       </c>
       <c r="X8" t="n">
         <v>5.4</v>
@@ -1824,7 +1891,7 @@
         <v>4.1</v>
       </c>
       <c r="Z8" t="n">
-        <v>21</v>
+        <v>21.1</v>
       </c>
       <c r="AA8" t="n">
         <v>19.4</v>
@@ -1833,19 +1900,19 @@
         <v>101.2</v>
       </c>
       <c r="AC8" t="n">
-        <v>-1</v>
+        <v>-1.4</v>
       </c>
       <c r="AD8" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AE8" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AF8" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AG8" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AH8" t="n">
         <v>3</v>
@@ -1860,16 +1927,16 @@
         <v>10</v>
       </c>
       <c r="AL8" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AM8" t="n">
         <v>11</v>
       </c>
       <c r="AN8" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AO8" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AP8" t="n">
         <v>21</v>
@@ -1881,10 +1948,10 @@
         <v>26</v>
       </c>
       <c r="AS8" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AT8" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AU8" t="n">
         <v>8</v>
@@ -1902,7 +1969,7 @@
         <v>4</v>
       </c>
       <c r="AZ8" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="BA8" t="n">
         <v>22</v>
@@ -1911,7 +1978,7 @@
         <v>7</v>
       </c>
       <c r="BC8" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="BD8" t="n">
         <v>10</v>
@@ -1923,7 +1990,7 @@
       </c>
       <c r="BF8" t="inlineStr">
         <is>
-          <t>3-10-2012-13</t>
+          <t>2013-03-10</t>
         </is>
       </c>
     </row>
@@ -2018,7 +2085,7 @@
         <v>4.4</v>
       </c>
       <c r="AD9" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="AE9" t="n">
         <v>5</v>
@@ -2048,7 +2115,7 @@
         <v>18</v>
       </c>
       <c r="AN9" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AO9" t="n">
         <v>7</v>
@@ -2057,13 +2124,13 @@
         <v>3</v>
       </c>
       <c r="AQ9" t="n">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="AR9" t="n">
         <v>2</v>
       </c>
       <c r="AS9" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AT9" t="n">
         <v>2</v>
@@ -2072,7 +2139,7 @@
         <v>2</v>
       </c>
       <c r="AV9" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AW9" t="n">
         <v>2</v>
@@ -2093,7 +2160,7 @@
         <v>3</v>
       </c>
       <c r="BC9" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BD9" t="n">
         <v>10</v>
@@ -2105,7 +2172,7 @@
       </c>
       <c r="BF9" t="inlineStr">
         <is>
-          <t>3-10-2012-13</t>
+          <t>2013-03-10</t>
         </is>
       </c>
     </row>
@@ -2122,61 +2189,61 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E10" t="n">
         <v>23</v>
       </c>
       <c r="F10" t="n">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G10" t="n">
-        <v>0.354</v>
+        <v>0.359</v>
       </c>
       <c r="H10" t="n">
         <v>48.4</v>
       </c>
       <c r="I10" t="n">
-        <v>36.1</v>
+        <v>36.2</v>
       </c>
       <c r="J10" t="n">
-        <v>81.3</v>
+        <v>81.59999999999999</v>
       </c>
       <c r="K10" t="n">
-        <v>0.444</v>
+        <v>0.443</v>
       </c>
       <c r="L10" t="n">
-        <v>6.3</v>
+        <v>6.2</v>
       </c>
       <c r="M10" t="n">
-        <v>17.3</v>
+        <v>17.2</v>
       </c>
       <c r="N10" t="n">
-        <v>0.363</v>
+        <v>0.36</v>
       </c>
       <c r="O10" t="n">
-        <v>16</v>
+        <v>15.8</v>
       </c>
       <c r="P10" t="n">
-        <v>23.1</v>
+        <v>22.8</v>
       </c>
       <c r="Q10" t="n">
-        <v>0.6909999999999999</v>
+        <v>0.6929999999999999</v>
       </c>
       <c r="R10" t="n">
         <v>12.4</v>
       </c>
       <c r="S10" t="n">
-        <v>30.6</v>
+        <v>30.8</v>
       </c>
       <c r="T10" t="n">
-        <v>43</v>
+        <v>43.2</v>
       </c>
       <c r="U10" t="n">
-        <v>21</v>
+        <v>20.9</v>
       </c>
       <c r="V10" t="n">
-        <v>15.2</v>
+        <v>15.1</v>
       </c>
       <c r="W10" t="n">
         <v>6.9</v>
@@ -2191,13 +2258,13 @@
         <v>19.7</v>
       </c>
       <c r="AA10" t="n">
-        <v>20.4</v>
+        <v>20.3</v>
       </c>
       <c r="AB10" t="n">
         <v>94.40000000000001</v>
       </c>
       <c r="AC10" t="n">
-        <v>-3.8</v>
+        <v>-3.4</v>
       </c>
       <c r="AD10" t="n">
         <v>1</v>
@@ -2206,49 +2273,49 @@
         <v>21</v>
       </c>
       <c r="AF10" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="AG10" t="n">
         <v>22</v>
       </c>
       <c r="AH10" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AI10" t="n">
         <v>24</v>
       </c>
       <c r="AJ10" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AK10" t="n">
         <v>16</v>
       </c>
       <c r="AL10" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AM10" t="n">
         <v>25</v>
       </c>
       <c r="AN10" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AO10" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AP10" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="AQ10" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AR10" t="n">
         <v>9</v>
       </c>
       <c r="AS10" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="AT10" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AU10" t="n">
         <v>24</v>
@@ -2257,13 +2324,13 @@
         <v>21</v>
       </c>
       <c r="AW10" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AX10" t="n">
         <v>12</v>
       </c>
       <c r="AY10" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AZ10" t="n">
         <v>14</v>
@@ -2275,7 +2342,7 @@
         <v>22</v>
       </c>
       <c r="BC10" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="BD10" t="n">
         <v>10</v>
@@ -2287,7 +2354,7 @@
       </c>
       <c r="BF10" t="inlineStr">
         <is>
-          <t>3-10-2012-13</t>
+          <t>2013-03-10</t>
         </is>
       </c>
     </row>
@@ -2382,7 +2449,7 @@
         <v>-0.7</v>
       </c>
       <c r="AD11" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="AE11" t="n">
         <v>10</v>
@@ -2403,7 +2470,7 @@
         <v>8</v>
       </c>
       <c r="AK11" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AL11" t="n">
         <v>8</v>
@@ -2415,7 +2482,7 @@
         <v>1</v>
       </c>
       <c r="AO11" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AP11" t="n">
         <v>16</v>
@@ -2454,7 +2521,7 @@
         <v>20</v>
       </c>
       <c r="BB11" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="BC11" t="n">
         <v>16</v>
@@ -2469,7 +2536,7 @@
       </c>
       <c r="BF11" t="inlineStr">
         <is>
-          <t>3-10-2012-13</t>
+          <t>2013-03-10</t>
         </is>
       </c>
     </row>
@@ -2564,7 +2631,7 @@
         <v>3.2</v>
       </c>
       <c r="AD12" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="AE12" t="n">
         <v>12</v>
@@ -2576,10 +2643,10 @@
         <v>14</v>
       </c>
       <c r="AH12" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AI12" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AJ12" t="n">
         <v>10</v>
@@ -2597,7 +2664,7 @@
         <v>6</v>
       </c>
       <c r="AO12" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AP12" t="n">
         <v>5</v>
@@ -2606,7 +2673,7 @@
         <v>17</v>
       </c>
       <c r="AR12" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AS12" t="n">
         <v>8</v>
@@ -2615,7 +2682,7 @@
         <v>12</v>
       </c>
       <c r="AU12" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AV12" t="n">
         <v>30</v>
@@ -2636,7 +2703,7 @@
         <v>12</v>
       </c>
       <c r="BB12" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BC12" t="n">
         <v>9</v>
@@ -2651,7 +2718,7 @@
       </c>
       <c r="BF12" t="inlineStr">
         <is>
-          <t>3-10-2012-13</t>
+          <t>2013-03-10</t>
         </is>
       </c>
     </row>
@@ -2668,58 +2735,58 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E13" t="n">
         <v>39</v>
       </c>
       <c r="F13" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G13" t="n">
-        <v>0.619</v>
+        <v>0.629</v>
       </c>
       <c r="H13" t="n">
         <v>48.5</v>
       </c>
       <c r="I13" t="n">
-        <v>35</v>
+        <v>35.1</v>
       </c>
       <c r="J13" t="n">
-        <v>80.40000000000001</v>
+        <v>80.7</v>
       </c>
       <c r="K13" t="n">
         <v>0.435</v>
       </c>
       <c r="L13" t="n">
-        <v>7</v>
+        <v>6.9</v>
       </c>
       <c r="M13" t="n">
-        <v>19.6</v>
+        <v>19.5</v>
       </c>
       <c r="N13" t="n">
         <v>0.356</v>
       </c>
       <c r="O13" t="n">
-        <v>17.1</v>
+        <v>16.9</v>
       </c>
       <c r="P13" t="n">
-        <v>22.9</v>
+        <v>22.8</v>
       </c>
       <c r="Q13" t="n">
-        <v>0.746</v>
+        <v>0.743</v>
       </c>
       <c r="R13" t="n">
-        <v>12.7</v>
+        <v>12.8</v>
       </c>
       <c r="S13" t="n">
-        <v>32.9</v>
+        <v>33</v>
       </c>
       <c r="T13" t="n">
-        <v>45.6</v>
+        <v>45.8</v>
       </c>
       <c r="U13" t="n">
-        <v>20.4</v>
+        <v>20.5</v>
       </c>
       <c r="V13" t="n">
         <v>15.2</v>
@@ -2737,16 +2804,16 @@
         <v>20</v>
       </c>
       <c r="AA13" t="n">
-        <v>21.7</v>
+        <v>21.5</v>
       </c>
       <c r="AB13" t="n">
-        <v>94</v>
+        <v>94.09999999999999</v>
       </c>
       <c r="AC13" t="n">
-        <v>4.3</v>
+        <v>4.6</v>
       </c>
       <c r="AD13" t="n">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="AE13" t="n">
         <v>7</v>
@@ -2764,7 +2831,7 @@
         <v>28</v>
       </c>
       <c r="AJ13" t="n">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="AK13" t="n">
         <v>25</v>
@@ -2773,13 +2840,13 @@
         <v>16</v>
       </c>
       <c r="AM13" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AN13" t="n">
         <v>17</v>
       </c>
       <c r="AO13" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="AP13" t="n">
         <v>13</v>
@@ -2788,7 +2855,7 @@
         <v>19</v>
       </c>
       <c r="AR13" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AS13" t="n">
         <v>4</v>
@@ -2800,7 +2867,7 @@
         <v>27</v>
       </c>
       <c r="AV13" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="AW13" t="n">
         <v>24</v>
@@ -2809,7 +2876,7 @@
         <v>3</v>
       </c>
       <c r="AY13" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AZ13" t="n">
         <v>16</v>
@@ -2821,7 +2888,7 @@
         <v>25</v>
       </c>
       <c r="BC13" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="BD13" t="n">
         <v>10</v>
@@ -2833,7 +2900,7 @@
       </c>
       <c r="BF13" t="inlineStr">
         <is>
-          <t>3-10-2012-13</t>
+          <t>2013-03-10</t>
         </is>
       </c>
     </row>
@@ -2850,37 +2917,37 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E14" t="n">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F14" t="n">
         <v>20</v>
       </c>
       <c r="G14" t="n">
-        <v>0.6919999999999999</v>
+        <v>0.6879999999999999</v>
       </c>
       <c r="H14" t="n">
         <v>48.1</v>
       </c>
       <c r="I14" t="n">
-        <v>38.6</v>
+        <v>38.4</v>
       </c>
       <c r="J14" t="n">
-        <v>80.7</v>
+        <v>80.8</v>
       </c>
       <c r="K14" t="n">
-        <v>0.478</v>
+        <v>0.475</v>
       </c>
       <c r="L14" t="n">
-        <v>7.5</v>
+        <v>7.4</v>
       </c>
       <c r="M14" t="n">
-        <v>20.8</v>
+        <v>20.7</v>
       </c>
       <c r="N14" t="n">
-        <v>0.36</v>
+        <v>0.357</v>
       </c>
       <c r="O14" t="n">
         <v>16.5</v>
@@ -2889,43 +2956,43 @@
         <v>23.4</v>
       </c>
       <c r="Q14" t="n">
-        <v>0.706</v>
+        <v>0.707</v>
       </c>
       <c r="R14" t="n">
-        <v>11.4</v>
+        <v>11.5</v>
       </c>
       <c r="S14" t="n">
-        <v>30.1</v>
+        <v>30.2</v>
       </c>
       <c r="T14" t="n">
-        <v>41.5</v>
+        <v>41.6</v>
       </c>
       <c r="U14" t="n">
-        <v>23.7</v>
+        <v>23.5</v>
       </c>
       <c r="V14" t="n">
         <v>14.9</v>
       </c>
       <c r="W14" t="n">
-        <v>9.9</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="X14" t="n">
-        <v>5.8</v>
+        <v>5.9</v>
       </c>
       <c r="Y14" t="n">
         <v>4.3</v>
       </c>
       <c r="Z14" t="n">
-        <v>20.9</v>
+        <v>20.8</v>
       </c>
       <c r="AA14" t="n">
         <v>21</v>
       </c>
       <c r="AB14" t="n">
-        <v>101.1</v>
+        <v>100.7</v>
       </c>
       <c r="AC14" t="n">
-        <v>6.8</v>
+        <v>6.4</v>
       </c>
       <c r="AD14" t="n">
         <v>1</v>
@@ -2937,13 +3004,13 @@
         <v>5</v>
       </c>
       <c r="AG14" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AH14" t="n">
         <v>30</v>
       </c>
       <c r="AI14" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="AJ14" t="n">
         <v>24</v>
@@ -2952,13 +3019,13 @@
         <v>5</v>
       </c>
       <c r="AL14" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AM14" t="n">
         <v>10</v>
       </c>
       <c r="AN14" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AO14" t="n">
         <v>19</v>
@@ -2970,13 +3037,13 @@
         <v>26</v>
       </c>
       <c r="AR14" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AS14" t="n">
         <v>21</v>
       </c>
       <c r="AT14" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AU14" t="n">
         <v>4</v>
@@ -2994,7 +3061,7 @@
         <v>6</v>
       </c>
       <c r="AZ14" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="BA14" t="n">
         <v>8</v>
@@ -3015,7 +3082,7 @@
       </c>
       <c r="BF14" t="inlineStr">
         <is>
-          <t>3-10-2012-13</t>
+          <t>2013-03-10</t>
         </is>
       </c>
     </row>
@@ -3032,16 +3099,16 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E15" t="n">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F15" t="n">
         <v>31</v>
       </c>
       <c r="G15" t="n">
-        <v>0.516</v>
+        <v>0.508</v>
       </c>
       <c r="H15" t="n">
         <v>48.2</v>
@@ -3050,7 +3117,7 @@
         <v>37.4</v>
       </c>
       <c r="J15" t="n">
-        <v>81.3</v>
+        <v>81.2</v>
       </c>
       <c r="K15" t="n">
         <v>0.46</v>
@@ -3062,28 +3129,28 @@
         <v>24.5</v>
       </c>
       <c r="N15" t="n">
-        <v>0.358</v>
+        <v>0.361</v>
       </c>
       <c r="O15" t="n">
-        <v>18.9</v>
+        <v>19.1</v>
       </c>
       <c r="P15" t="n">
-        <v>27.4</v>
+        <v>27.6</v>
       </c>
       <c r="Q15" t="n">
-        <v>0.6909999999999999</v>
+        <v>0.6919999999999999</v>
       </c>
       <c r="R15" t="n">
-        <v>11.7</v>
+        <v>11.5</v>
       </c>
       <c r="S15" t="n">
         <v>33</v>
       </c>
       <c r="T15" t="n">
-        <v>44.7</v>
+        <v>44.6</v>
       </c>
       <c r="U15" t="n">
-        <v>22</v>
+        <v>22.1</v>
       </c>
       <c r="V15" t="n">
         <v>15.3</v>
@@ -3092,7 +3159,7 @@
         <v>7.1</v>
       </c>
       <c r="X15" t="n">
-        <v>5.2</v>
+        <v>5.1</v>
       </c>
       <c r="Y15" t="n">
         <v>5.1</v>
@@ -3101,16 +3168,16 @@
         <v>18.3</v>
       </c>
       <c r="AA15" t="n">
-        <v>22.9</v>
+        <v>23</v>
       </c>
       <c r="AB15" t="n">
-        <v>102.5</v>
+        <v>102.7</v>
       </c>
       <c r="AC15" t="n">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="AD15" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="AE15" t="n">
         <v>15</v>
@@ -3140,19 +3207,19 @@
         <v>3</v>
       </c>
       <c r="AN15" t="n">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="AO15" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AP15" t="n">
         <v>1</v>
       </c>
       <c r="AQ15" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AR15" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AS15" t="n">
         <v>3</v>
@@ -3173,7 +3240,7 @@
         <v>15</v>
       </c>
       <c r="AY15" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AZ15" t="n">
         <v>4</v>
@@ -3185,7 +3252,7 @@
         <v>6</v>
       </c>
       <c r="BC15" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="BD15" t="n">
         <v>10</v>
@@ -3197,7 +3264,7 @@
       </c>
       <c r="BF15" t="inlineStr">
         <is>
-          <t>3-10-2012-13</t>
+          <t>2013-03-10</t>
         </is>
       </c>
     </row>
@@ -3292,7 +3359,7 @@
         <v>4.3</v>
       </c>
       <c r="AD16" t="n">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="AE16" t="n">
         <v>5</v>
@@ -3301,19 +3368,19 @@
         <v>4</v>
       </c>
       <c r="AG16" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AH16" t="n">
         <v>20</v>
       </c>
       <c r="AI16" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AJ16" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AK16" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AL16" t="n">
         <v>30</v>
@@ -3322,7 +3389,7 @@
         <v>30</v>
       </c>
       <c r="AN16" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AO16" t="n">
         <v>22</v>
@@ -3343,10 +3410,10 @@
         <v>11</v>
       </c>
       <c r="AU16" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AV16" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AW16" t="n">
         <v>4</v>
@@ -3379,7 +3446,7 @@
       </c>
       <c r="BF16" t="inlineStr">
         <is>
-          <t>3-10-2012-13</t>
+          <t>2013-03-10</t>
         </is>
       </c>
     </row>
@@ -3396,16 +3463,16 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E17" t="n">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F17" t="n">
         <v>14</v>
       </c>
       <c r="G17" t="n">
-        <v>0.77</v>
+        <v>0.767</v>
       </c>
       <c r="H17" t="n">
         <v>48.7</v>
@@ -3414,37 +3481,37 @@
         <v>39</v>
       </c>
       <c r="J17" t="n">
-        <v>78.5</v>
+        <v>78.7</v>
       </c>
       <c r="K17" t="n">
-        <v>0.496</v>
+        <v>0.495</v>
       </c>
       <c r="L17" t="n">
         <v>8.199999999999999</v>
       </c>
       <c r="M17" t="n">
-        <v>21</v>
+        <v>21.2</v>
       </c>
       <c r="N17" t="n">
-        <v>0.388</v>
+        <v>0.387</v>
       </c>
       <c r="O17" t="n">
-        <v>17.4</v>
+        <v>17.3</v>
       </c>
       <c r="P17" t="n">
-        <v>22.8</v>
+        <v>22.7</v>
       </c>
       <c r="Q17" t="n">
-        <v>0.763</v>
+        <v>0.764</v>
       </c>
       <c r="R17" t="n">
         <v>8.4</v>
       </c>
       <c r="S17" t="n">
-        <v>30.1</v>
+        <v>30.3</v>
       </c>
       <c r="T17" t="n">
-        <v>38.5</v>
+        <v>38.7</v>
       </c>
       <c r="U17" t="n">
         <v>22.5</v>
@@ -3459,10 +3526,10 @@
         <v>5.1</v>
       </c>
       <c r="Y17" t="n">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="Z17" t="n">
-        <v>19.5</v>
+        <v>19.3</v>
       </c>
       <c r="AA17" t="n">
         <v>20.4</v>
@@ -3471,10 +3538,10 @@
         <v>103.5</v>
       </c>
       <c r="AC17" t="n">
-        <v>7.3</v>
+        <v>7.2</v>
       </c>
       <c r="AD17" t="n">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="AE17" t="n">
         <v>2</v>
@@ -3498,22 +3565,22 @@
         <v>1</v>
       </c>
       <c r="AL17" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AM17" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AN17" t="n">
         <v>3</v>
       </c>
       <c r="AO17" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AP17" t="n">
         <v>14</v>
       </c>
       <c r="AQ17" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AR17" t="n">
         <v>28</v>
@@ -3525,7 +3592,7 @@
         <v>30</v>
       </c>
       <c r="AU17" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AV17" t="n">
         <v>4</v>
@@ -3540,7 +3607,7 @@
         <v>1</v>
       </c>
       <c r="AZ17" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="BA17" t="n">
         <v>10</v>
@@ -3561,7 +3628,7 @@
       </c>
       <c r="BF17" t="inlineStr">
         <is>
-          <t>3-10-2012-13</t>
+          <t>2013-03-10</t>
         </is>
       </c>
     </row>
@@ -3578,22 +3645,22 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E18" t="n">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F18" t="n">
         <v>29</v>
       </c>
       <c r="G18" t="n">
-        <v>0.525</v>
+        <v>0.517</v>
       </c>
       <c r="H18" t="n">
         <v>48.4</v>
       </c>
       <c r="I18" t="n">
-        <v>38.1</v>
+        <v>38</v>
       </c>
       <c r="J18" t="n">
         <v>86.8</v>
@@ -3611,19 +3678,19 @@
         <v>0.356</v>
       </c>
       <c r="O18" t="n">
-        <v>16</v>
+        <v>15.8</v>
       </c>
       <c r="P18" t="n">
-        <v>21.8</v>
+        <v>21.5</v>
       </c>
       <c r="Q18" t="n">
         <v>0.736</v>
       </c>
       <c r="R18" t="n">
-        <v>12.6</v>
+        <v>12.7</v>
       </c>
       <c r="S18" t="n">
-        <v>31</v>
+        <v>30.9</v>
       </c>
       <c r="T18" t="n">
         <v>43.6</v>
@@ -3632,7 +3699,7 @@
         <v>22.8</v>
       </c>
       <c r="V18" t="n">
-        <v>14.4</v>
+        <v>14.5</v>
       </c>
       <c r="W18" t="n">
         <v>8.5</v>
@@ -3644,22 +3711,22 @@
         <v>4.4</v>
       </c>
       <c r="Z18" t="n">
-        <v>19.4</v>
+        <v>19.3</v>
       </c>
       <c r="AA18" t="n">
-        <v>19.8</v>
+        <v>19.7</v>
       </c>
       <c r="AB18" t="n">
-        <v>98.90000000000001</v>
+        <v>98.59999999999999</v>
       </c>
       <c r="AC18" t="n">
         <v>-0.8</v>
       </c>
       <c r="AD18" t="n">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="AE18" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AF18" t="n">
         <v>13</v>
@@ -3680,7 +3747,7 @@
         <v>24</v>
       </c>
       <c r="AL18" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AM18" t="n">
         <v>19</v>
@@ -3689,10 +3756,10 @@
         <v>16</v>
       </c>
       <c r="AO18" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AP18" t="n">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="AQ18" t="n">
         <v>22</v>
@@ -3722,10 +3789,10 @@
         <v>8</v>
       </c>
       <c r="AZ18" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="BA18" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="BB18" t="n">
         <v>12</v>
@@ -3743,7 +3810,7 @@
       </c>
       <c r="BF18" t="inlineStr">
         <is>
-          <t>3-10-2012-13</t>
+          <t>2013-03-10</t>
         </is>
       </c>
     </row>
@@ -3760,16 +3827,16 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E19" t="n">
         <v>21</v>
       </c>
       <c r="F19" t="n">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G19" t="n">
-        <v>0.35</v>
+        <v>0.356</v>
       </c>
       <c r="H19" t="n">
         <v>48.2</v>
@@ -3778,43 +3845,43 @@
         <v>35.3</v>
       </c>
       <c r="J19" t="n">
-        <v>81.7</v>
+        <v>81.59999999999999</v>
       </c>
       <c r="K19" t="n">
-        <v>0.431</v>
+        <v>0.433</v>
       </c>
       <c r="L19" t="n">
-        <v>5.2</v>
+        <v>5.3</v>
       </c>
       <c r="M19" t="n">
-        <v>17.9</v>
+        <v>17.8</v>
       </c>
       <c r="N19" t="n">
-        <v>0.293</v>
+        <v>0.296</v>
       </c>
       <c r="O19" t="n">
-        <v>18.6</v>
+        <v>18.8</v>
       </c>
       <c r="P19" t="n">
-        <v>25.5</v>
+        <v>25.7</v>
       </c>
       <c r="Q19" t="n">
-        <v>0.732</v>
+        <v>0.731</v>
       </c>
       <c r="R19" t="n">
         <v>12.6</v>
       </c>
       <c r="S19" t="n">
-        <v>30.4</v>
+        <v>30.3</v>
       </c>
       <c r="T19" t="n">
-        <v>42.9</v>
+        <v>43</v>
       </c>
       <c r="U19" t="n">
         <v>21.9</v>
       </c>
       <c r="V19" t="n">
-        <v>15.2</v>
+        <v>15.3</v>
       </c>
       <c r="W19" t="n">
         <v>8.300000000000001</v>
@@ -3829,19 +3896,19 @@
         <v>18.4</v>
       </c>
       <c r="AA19" t="n">
-        <v>22.8</v>
+        <v>22.9</v>
       </c>
       <c r="AB19" t="n">
-        <v>94.40000000000001</v>
+        <v>94.7</v>
       </c>
       <c r="AC19" t="n">
-        <v>-3.5</v>
+        <v>-3.2</v>
       </c>
       <c r="AD19" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AE19" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AF19" t="n">
         <v>20</v>
@@ -3883,7 +3950,7 @@
         <v>6</v>
       </c>
       <c r="AS19" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AT19" t="n">
         <v>10</v>
@@ -3892,7 +3959,7 @@
         <v>19</v>
       </c>
       <c r="AV19" t="n">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="AW19" t="n">
         <v>11</v>
@@ -3901,7 +3968,7 @@
         <v>18</v>
       </c>
       <c r="AY19" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AZ19" t="n">
         <v>5</v>
@@ -3910,10 +3977,10 @@
         <v>2</v>
       </c>
       <c r="BB19" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="BC19" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="BD19" t="n">
         <v>10</v>
@@ -3925,7 +3992,7 @@
       </c>
       <c r="BF19" t="inlineStr">
         <is>
-          <t>3-10-2012-13</t>
+          <t>2013-03-10</t>
         </is>
       </c>
     </row>
@@ -3942,16 +4009,16 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E20" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F20" t="n">
         <v>42</v>
       </c>
       <c r="G20" t="n">
-        <v>0.344</v>
+        <v>0.333</v>
       </c>
       <c r="H20" t="n">
         <v>48.3</v>
@@ -3960,46 +4027,46 @@
         <v>36.3</v>
       </c>
       <c r="J20" t="n">
-        <v>80.59999999999999</v>
+        <v>80.5</v>
       </c>
       <c r="K20" t="n">
         <v>0.451</v>
       </c>
       <c r="L20" t="n">
-        <v>6.8</v>
+        <v>6.7</v>
       </c>
       <c r="M20" t="n">
-        <v>18.3</v>
+        <v>18.2</v>
       </c>
       <c r="N20" t="n">
-        <v>0.372</v>
+        <v>0.369</v>
       </c>
       <c r="O20" t="n">
-        <v>15</v>
+        <v>15.1</v>
       </c>
       <c r="P20" t="n">
-        <v>19.4</v>
+        <v>19.5</v>
       </c>
       <c r="Q20" t="n">
         <v>0.772</v>
       </c>
       <c r="R20" t="n">
-        <v>11.5</v>
+        <v>11.4</v>
       </c>
       <c r="S20" t="n">
         <v>29.9</v>
       </c>
       <c r="T20" t="n">
-        <v>41.4</v>
+        <v>41.3</v>
       </c>
       <c r="U20" t="n">
-        <v>21.4</v>
+        <v>21.3</v>
       </c>
       <c r="V20" t="n">
         <v>14.3</v>
       </c>
       <c r="W20" t="n">
-        <v>6.3</v>
+        <v>6.2</v>
       </c>
       <c r="X20" t="n">
         <v>5.6</v>
@@ -4008,49 +4075,49 @@
         <v>6.1</v>
       </c>
       <c r="Z20" t="n">
-        <v>20.3</v>
+        <v>20.4</v>
       </c>
       <c r="AA20" t="n">
-        <v>18.3</v>
+        <v>18.5</v>
       </c>
       <c r="AB20" t="n">
-        <v>94.40000000000001</v>
+        <v>94.3</v>
       </c>
       <c r="AC20" t="n">
-        <v>-3.5</v>
+        <v>-3.6</v>
       </c>
       <c r="AD20" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="AE20" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="AF20" t="n">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="AG20" t="n">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="AH20" t="n">
         <v>22</v>
       </c>
       <c r="AI20" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AJ20" t="n">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="AK20" t="n">
         <v>13</v>
       </c>
       <c r="AL20" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AM20" t="n">
         <v>21</v>
       </c>
       <c r="AN20" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="AO20" t="n">
         <v>25</v>
@@ -4062,16 +4129,16 @@
         <v>11</v>
       </c>
       <c r="AR20" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AS20" t="n">
         <v>25</v>
       </c>
       <c r="AT20" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AU20" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AV20" t="n">
         <v>8</v>
@@ -4083,19 +4150,19 @@
         <v>8</v>
       </c>
       <c r="AY20" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="AZ20" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="BA20" t="n">
         <v>28</v>
       </c>
       <c r="BB20" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="BC20" t="n">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="BD20" t="n">
         <v>10</v>
@@ -4107,7 +4174,7 @@
       </c>
       <c r="BF20" t="inlineStr">
         <is>
-          <t>3-10-2012-13</t>
+          <t>2013-03-10</t>
         </is>
       </c>
     </row>
@@ -4202,7 +4269,7 @@
         <v>4.2</v>
       </c>
       <c r="AD21" t="n">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="AE21" t="n">
         <v>8</v>
@@ -4217,13 +4284,13 @@
         <v>29</v>
       </c>
       <c r="AI21" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AJ21" t="n">
         <v>15</v>
       </c>
       <c r="AK21" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AL21" t="n">
         <v>2</v>
@@ -4232,13 +4299,13 @@
         <v>1</v>
       </c>
       <c r="AN21" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AO21" t="n">
         <v>18</v>
       </c>
       <c r="AP21" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AQ21" t="n">
         <v>14</v>
@@ -4259,7 +4326,7 @@
         <v>1</v>
       </c>
       <c r="AW21" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AX21" t="n">
         <v>30</v>
@@ -4268,7 +4335,7 @@
         <v>2</v>
       </c>
       <c r="AZ21" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="BA21" t="n">
         <v>21</v>
@@ -4289,7 +4356,7 @@
       </c>
       <c r="BF21" t="inlineStr">
         <is>
-          <t>3-10-2012-13</t>
+          <t>2013-03-10</t>
         </is>
       </c>
     </row>
@@ -4306,49 +4373,49 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E22" t="n">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F22" t="n">
         <v>16</v>
       </c>
       <c r="G22" t="n">
-        <v>0.746</v>
+        <v>0.742</v>
       </c>
       <c r="H22" t="n">
         <v>48.4</v>
       </c>
       <c r="I22" t="n">
-        <v>38.3</v>
+        <v>38.4</v>
       </c>
       <c r="J22" t="n">
-        <v>79.3</v>
+        <v>79.5</v>
       </c>
       <c r="K22" t="n">
-        <v>0.483</v>
+        <v>0.484</v>
       </c>
       <c r="L22" t="n">
-        <v>7.6</v>
+        <v>7.7</v>
       </c>
       <c r="M22" t="n">
         <v>19.6</v>
       </c>
       <c r="N22" t="n">
-        <v>0.39</v>
+        <v>0.392</v>
       </c>
       <c r="O22" t="n">
-        <v>22.5</v>
+        <v>22.4</v>
       </c>
       <c r="P22" t="n">
-        <v>27</v>
+        <v>26.9</v>
       </c>
       <c r="Q22" t="n">
-        <v>0.831</v>
+        <v>0.832</v>
       </c>
       <c r="R22" t="n">
-        <v>10.3</v>
+        <v>10.4</v>
       </c>
       <c r="S22" t="n">
         <v>32.8</v>
@@ -4366,25 +4433,25 @@
         <v>8.4</v>
       </c>
       <c r="X22" t="n">
-        <v>7.5</v>
+        <v>7.6</v>
       </c>
       <c r="Y22" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="Z22" t="n">
         <v>20.3</v>
       </c>
       <c r="AA22" t="n">
-        <v>21.1</v>
+        <v>21</v>
       </c>
       <c r="AB22" t="n">
-        <v>106.7</v>
+        <v>107</v>
       </c>
       <c r="AC22" t="n">
         <v>9.6</v>
       </c>
       <c r="AD22" t="n">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="AE22" t="n">
         <v>2</v>
@@ -4399,7 +4466,7 @@
         <v>15</v>
       </c>
       <c r="AI22" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="AJ22" t="n">
         <v>28</v>
@@ -4411,7 +4478,7 @@
         <v>10</v>
       </c>
       <c r="AM22" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AN22" t="n">
         <v>2</v>
@@ -4429,10 +4496,10 @@
         <v>25</v>
       </c>
       <c r="AS22" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AT22" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AU22" t="n">
         <v>18</v>
@@ -4450,13 +4517,13 @@
         <v>5</v>
       </c>
       <c r="AZ22" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="BA22" t="n">
         <v>7</v>
       </c>
       <c r="BB22" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BC22" t="n">
         <v>1</v>
@@ -4471,7 +4538,7 @@
       </c>
       <c r="BF22" t="inlineStr">
         <is>
-          <t>3-10-2012-13</t>
+          <t>2013-03-10</t>
         </is>
       </c>
     </row>
@@ -4488,16 +4555,16 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E23" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F23" t="n">
         <v>46</v>
       </c>
       <c r="G23" t="n">
-        <v>0.281</v>
+        <v>0.27</v>
       </c>
       <c r="H23" t="n">
         <v>48.2</v>
@@ -4509,40 +4576,40 @@
         <v>83.3</v>
       </c>
       <c r="K23" t="n">
-        <v>0.453</v>
+        <v>0.452</v>
       </c>
       <c r="L23" t="n">
-        <v>6.4</v>
+        <v>6.3</v>
       </c>
       <c r="M23" t="n">
-        <v>19.2</v>
+        <v>19.1</v>
       </c>
       <c r="N23" t="n">
-        <v>0.335</v>
+        <v>0.333</v>
       </c>
       <c r="O23" t="n">
-        <v>12.3</v>
+        <v>12.4</v>
       </c>
       <c r="P23" t="n">
-        <v>16</v>
+        <v>16.1</v>
       </c>
       <c r="Q23" t="n">
         <v>0.772</v>
       </c>
       <c r="R23" t="n">
-        <v>10.5</v>
+        <v>10.6</v>
       </c>
       <c r="S23" t="n">
-        <v>31.8</v>
+        <v>31.7</v>
       </c>
       <c r="T23" t="n">
         <v>42.3</v>
       </c>
       <c r="U23" t="n">
-        <v>23.5</v>
+        <v>23.4</v>
       </c>
       <c r="V23" t="n">
-        <v>14.8</v>
+        <v>14.7</v>
       </c>
       <c r="W23" t="n">
         <v>6.1</v>
@@ -4554,19 +4621,19 @@
         <v>5</v>
       </c>
       <c r="Z23" t="n">
-        <v>19.1</v>
+        <v>19.2</v>
       </c>
       <c r="AA23" t="n">
-        <v>16.5</v>
+        <v>16.6</v>
       </c>
       <c r="AB23" t="n">
-        <v>94.2</v>
+        <v>94.09999999999999</v>
       </c>
       <c r="AC23" t="n">
-        <v>-6.2</v>
+        <v>-6.4</v>
       </c>
       <c r="AD23" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="AE23" t="n">
         <v>29</v>
@@ -4587,7 +4654,7 @@
         <v>9</v>
       </c>
       <c r="AK23" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AL23" t="n">
         <v>21</v>
@@ -4611,13 +4678,13 @@
         <v>24</v>
       </c>
       <c r="AS23" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AT23" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AU23" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AV23" t="n">
         <v>14</v>
@@ -4653,7 +4720,7 @@
       </c>
       <c r="BF23" t="inlineStr">
         <is>
-          <t>3-10-2012-13</t>
+          <t>2013-03-10</t>
         </is>
       </c>
     </row>
@@ -4670,16 +4737,16 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E24" t="n">
         <v>23</v>
       </c>
       <c r="F24" t="n">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G24" t="n">
-        <v>0.371</v>
+        <v>0.377</v>
       </c>
       <c r="H24" t="n">
         <v>48.2</v>
@@ -4700,19 +4767,19 @@
         <v>17.5</v>
       </c>
       <c r="N24" t="n">
-        <v>0.356</v>
+        <v>0.355</v>
       </c>
       <c r="O24" t="n">
-        <v>12</v>
+        <v>12.1</v>
       </c>
       <c r="P24" t="n">
-        <v>16.6</v>
+        <v>16.7</v>
       </c>
       <c r="Q24" t="n">
-        <v>0.72</v>
+        <v>0.721</v>
       </c>
       <c r="R24" t="n">
-        <v>10.8</v>
+        <v>10.9</v>
       </c>
       <c r="S24" t="n">
         <v>30.7</v>
@@ -4724,19 +4791,19 @@
         <v>22.4</v>
       </c>
       <c r="V24" t="n">
-        <v>13</v>
+        <v>13.1</v>
       </c>
       <c r="W24" t="n">
         <v>7.3</v>
       </c>
       <c r="X24" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="Y24" t="n">
         <v>4.8</v>
       </c>
-      <c r="Y24" t="n">
-        <v>4.9</v>
-      </c>
       <c r="Z24" t="n">
-        <v>18.7</v>
+        <v>18.8</v>
       </c>
       <c r="AA24" t="n">
         <v>16.3</v>
@@ -4748,7 +4815,7 @@
         <v>-4</v>
       </c>
       <c r="AD24" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AE24" t="n">
         <v>21</v>
@@ -4763,22 +4830,22 @@
         <v>23</v>
       </c>
       <c r="AI24" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AJ24" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AK24" t="n">
         <v>23</v>
       </c>
       <c r="AL24" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AM24" t="n">
         <v>23</v>
       </c>
       <c r="AN24" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AO24" t="n">
         <v>30</v>
@@ -4790,13 +4857,13 @@
         <v>25</v>
       </c>
       <c r="AR24" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AS24" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AT24" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AU24" t="n">
         <v>14</v>
@@ -4808,13 +4875,13 @@
         <v>21</v>
       </c>
       <c r="AX24" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AY24" t="n">
         <v>13</v>
       </c>
       <c r="AZ24" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="BA24" t="n">
         <v>30</v>
@@ -4835,7 +4902,7 @@
       </c>
       <c r="BF24" t="inlineStr">
         <is>
-          <t>3-10-2012-13</t>
+          <t>2013-03-10</t>
         </is>
       </c>
     </row>
@@ -4930,7 +4997,7 @@
         <v>-5.5</v>
       </c>
       <c r="AD25" t="n">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="AE25" t="n">
         <v>23</v>
@@ -4942,13 +5009,13 @@
         <v>24</v>
       </c>
       <c r="AH25" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AI25" t="n">
         <v>13</v>
       </c>
       <c r="AJ25" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AK25" t="n">
         <v>21</v>
@@ -4972,13 +5039,13 @@
         <v>20</v>
       </c>
       <c r="AR25" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AS25" t="n">
         <v>23</v>
       </c>
       <c r="AT25" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AU25" t="n">
         <v>15</v>
@@ -5002,7 +5069,7 @@
         <v>27</v>
       </c>
       <c r="BB25" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="BC25" t="n">
         <v>27</v>
@@ -5017,7 +5084,7 @@
       </c>
       <c r="BF25" t="inlineStr">
         <is>
-          <t>3-10-2012-13</t>
+          <t>2013-03-10</t>
         </is>
       </c>
     </row>
@@ -5034,16 +5101,16 @@
         </is>
       </c>
       <c r="D26" t="n">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E26" t="n">
         <v>29</v>
       </c>
       <c r="F26" t="n">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G26" t="n">
-        <v>0.468</v>
+        <v>0.475</v>
       </c>
       <c r="H26" t="n">
         <v>48.6</v>
@@ -5052,37 +5119,37 @@
         <v>36.8</v>
       </c>
       <c r="J26" t="n">
-        <v>82</v>
+        <v>82.09999999999999</v>
       </c>
       <c r="K26" t="n">
-        <v>0.449</v>
+        <v>0.448</v>
       </c>
       <c r="L26" t="n">
-        <v>8.199999999999999</v>
+        <v>8.1</v>
       </c>
       <c r="M26" t="n">
         <v>23.6</v>
       </c>
       <c r="N26" t="n">
-        <v>0.347</v>
+        <v>0.346</v>
       </c>
       <c r="O26" t="n">
-        <v>16.2</v>
+        <v>16.3</v>
       </c>
       <c r="P26" t="n">
-        <v>20.9</v>
+        <v>21.1</v>
       </c>
       <c r="Q26" t="n">
-        <v>0.774</v>
+        <v>0.773</v>
       </c>
       <c r="R26" t="n">
         <v>11.1</v>
       </c>
       <c r="S26" t="n">
-        <v>30.3</v>
+        <v>30.4</v>
       </c>
       <c r="T26" t="n">
-        <v>41.4</v>
+        <v>41.6</v>
       </c>
       <c r="U26" t="n">
         <v>21.6</v>
@@ -5094,16 +5161,16 @@
         <v>6.9</v>
       </c>
       <c r="X26" t="n">
-        <v>4.7</v>
+        <v>4.8</v>
       </c>
       <c r="Y26" t="n">
         <v>4.1</v>
       </c>
       <c r="Z26" t="n">
-        <v>18.7</v>
+        <v>18.8</v>
       </c>
       <c r="AA26" t="n">
-        <v>19.1</v>
+        <v>19.2</v>
       </c>
       <c r="AB26" t="n">
         <v>98</v>
@@ -5112,7 +5179,7 @@
         <v>-1.8</v>
       </c>
       <c r="AD26" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AE26" t="n">
         <v>18</v>
@@ -5124,25 +5191,25 @@
         <v>18</v>
       </c>
       <c r="AH26" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AI26" t="n">
         <v>18</v>
       </c>
       <c r="AJ26" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AK26" t="n">
         <v>15</v>
       </c>
       <c r="AL26" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AM26" t="n">
         <v>5</v>
       </c>
       <c r="AN26" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="AO26" t="n">
         <v>20</v>
@@ -5157,10 +5224,10 @@
         <v>18</v>
       </c>
       <c r="AS26" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AT26" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AU26" t="n">
         <v>21</v>
@@ -5169,16 +5236,16 @@
         <v>15</v>
       </c>
       <c r="AW26" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AX26" t="n">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="AY26" t="n">
         <v>3</v>
       </c>
       <c r="AZ26" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="BA26" t="n">
         <v>23</v>
@@ -5199,7 +5266,7 @@
       </c>
       <c r="BF26" t="inlineStr">
         <is>
-          <t>3-10-2012-13</t>
+          <t>2013-03-10</t>
         </is>
       </c>
     </row>
@@ -5216,25 +5283,25 @@
         </is>
       </c>
       <c r="D27" t="n">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E27" t="n">
         <v>22</v>
       </c>
       <c r="F27" t="n">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G27" t="n">
-        <v>0.338</v>
+        <v>0.344</v>
       </c>
       <c r="H27" t="n">
         <v>48.5</v>
       </c>
       <c r="I27" t="n">
-        <v>37.1</v>
+        <v>37</v>
       </c>
       <c r="J27" t="n">
-        <v>83.7</v>
+        <v>83.59999999999999</v>
       </c>
       <c r="K27" t="n">
         <v>0.443</v>
@@ -5246,13 +5313,13 @@
         <v>19.5</v>
       </c>
       <c r="N27" t="n">
-        <v>0.366</v>
+        <v>0.368</v>
       </c>
       <c r="O27" t="n">
         <v>17.7</v>
       </c>
       <c r="P27" t="n">
-        <v>23.1</v>
+        <v>23</v>
       </c>
       <c r="Q27" t="n">
         <v>0.767</v>
@@ -5267,28 +5334,28 @@
         <v>40.5</v>
       </c>
       <c r="U27" t="n">
-        <v>20.7</v>
+        <v>20.6</v>
       </c>
       <c r="V27" t="n">
-        <v>15</v>
+        <v>15.1</v>
       </c>
       <c r="W27" t="n">
-        <v>8.4</v>
+        <v>8.5</v>
       </c>
       <c r="X27" t="n">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="Y27" t="n">
         <v>6.4</v>
       </c>
       <c r="Z27" t="n">
-        <v>21.2</v>
+        <v>21.1</v>
       </c>
       <c r="AA27" t="n">
-        <v>20.2</v>
+        <v>20.1</v>
       </c>
       <c r="AB27" t="n">
-        <v>99.09999999999999</v>
+        <v>98.8</v>
       </c>
       <c r="AC27" t="n">
         <v>-6.1</v>
@@ -5300,22 +5367,22 @@
         <v>23</v>
       </c>
       <c r="AF27" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AG27" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AH27" t="n">
         <v>13</v>
       </c>
       <c r="AI27" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AJ27" t="n">
         <v>7</v>
       </c>
       <c r="AK27" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AL27" t="n">
         <v>14</v>
@@ -5330,7 +5397,7 @@
         <v>8</v>
       </c>
       <c r="AP27" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AQ27" t="n">
         <v>12</v>
@@ -5348,7 +5415,7 @@
         <v>25</v>
       </c>
       <c r="AV27" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AW27" t="n">
         <v>9</v>
@@ -5381,7 +5448,7 @@
       </c>
       <c r="BF27" t="inlineStr">
         <is>
-          <t>3-10-2012-13</t>
+          <t>2013-03-10</t>
         </is>
       </c>
     </row>
@@ -5476,7 +5543,7 @@
         <v>8.6</v>
       </c>
       <c r="AD28" t="n">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="AE28" t="n">
         <v>1</v>
@@ -5494,7 +5561,7 @@
         <v>2</v>
       </c>
       <c r="AJ28" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AK28" t="n">
         <v>2</v>
@@ -5509,10 +5576,10 @@
         <v>4</v>
       </c>
       <c r="AO28" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AP28" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AQ28" t="n">
         <v>4</v>
@@ -5563,7 +5630,7 @@
       </c>
       <c r="BF28" t="inlineStr">
         <is>
-          <t>3-10-2012-13</t>
+          <t>2013-03-10</t>
         </is>
       </c>
     </row>
@@ -5580,19 +5647,19 @@
         </is>
       </c>
       <c r="D29" t="n">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E29" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F29" t="n">
         <v>39</v>
       </c>
       <c r="G29" t="n">
-        <v>0.391</v>
+        <v>0.381</v>
       </c>
       <c r="H29" t="n">
-        <v>48.9</v>
+        <v>49</v>
       </c>
       <c r="I29" t="n">
         <v>36.4</v>
@@ -5601,7 +5668,7 @@
         <v>82.3</v>
       </c>
       <c r="K29" t="n">
-        <v>0.442</v>
+        <v>0.443</v>
       </c>
       <c r="L29" t="n">
         <v>7.4</v>
@@ -5613,10 +5680,10 @@
         <v>0.351</v>
       </c>
       <c r="O29" t="n">
-        <v>17.6</v>
+        <v>17.5</v>
       </c>
       <c r="P29" t="n">
-        <v>22.5</v>
+        <v>22.3</v>
       </c>
       <c r="Q29" t="n">
         <v>0.782</v>
@@ -5625,10 +5692,10 @@
         <v>10.8</v>
       </c>
       <c r="S29" t="n">
-        <v>29.3</v>
+        <v>29.1</v>
       </c>
       <c r="T29" t="n">
-        <v>40.1</v>
+        <v>40</v>
       </c>
       <c r="U29" t="n">
         <v>22</v>
@@ -5637,34 +5704,34 @@
         <v>13.3</v>
       </c>
       <c r="W29" t="n">
-        <v>7.5</v>
+        <v>7.4</v>
       </c>
       <c r="X29" t="n">
         <v>4.7</v>
       </c>
       <c r="Y29" t="n">
-        <v>5</v>
+        <v>5.1</v>
       </c>
       <c r="Z29" t="n">
         <v>22.9</v>
       </c>
       <c r="AA29" t="n">
-        <v>20</v>
+        <v>19.9</v>
       </c>
       <c r="AB29" t="n">
         <v>97.8</v>
       </c>
       <c r="AC29" t="n">
-        <v>-1.3</v>
+        <v>-1.4</v>
       </c>
       <c r="AD29" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="AE29" t="n">
         <v>20</v>
       </c>
       <c r="AF29" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="AG29" t="n">
         <v>20</v>
@@ -5673,31 +5740,31 @@
         <v>2</v>
       </c>
       <c r="AI29" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AJ29" t="n">
+        <v>12</v>
+      </c>
+      <c r="AK29" t="n">
+        <v>17</v>
+      </c>
+      <c r="AL29" t="n">
         <v>11</v>
       </c>
-      <c r="AK29" t="n">
-        <v>20</v>
-      </c>
-      <c r="AL29" t="n">
-        <v>12</v>
-      </c>
       <c r="AM29" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AN29" t="n">
         <v>21</v>
       </c>
       <c r="AO29" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AP29" t="n">
         <v>15</v>
       </c>
       <c r="AQ29" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AR29" t="n">
         <v>22</v>
@@ -5718,22 +5785,22 @@
         <v>18</v>
       </c>
       <c r="AX29" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AY29" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AZ29" t="n">
         <v>30</v>
       </c>
       <c r="BA29" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="BB29" t="n">
         <v>15</v>
       </c>
       <c r="BC29" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="BD29" t="n">
         <v>10</v>
@@ -5745,7 +5812,7 @@
       </c>
       <c r="BF29" t="inlineStr">
         <is>
-          <t>3-10-2012-13</t>
+          <t>2013-03-10</t>
         </is>
       </c>
     </row>
@@ -5840,25 +5907,25 @@
         <v>-0.6</v>
       </c>
       <c r="AD30" t="n">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="AE30" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AF30" t="n">
         <v>16</v>
       </c>
       <c r="AG30" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AH30" t="n">
         <v>8</v>
       </c>
       <c r="AI30" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AJ30" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AK30" t="n">
         <v>14</v>
@@ -5891,10 +5958,10 @@
         <v>14</v>
       </c>
       <c r="AU30" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AV30" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AW30" t="n">
         <v>13</v>
@@ -5927,7 +5994,7 @@
       </c>
       <c r="BF30" t="inlineStr">
         <is>
-          <t>3-10-2012-13</t>
+          <t>2013-03-10</t>
         </is>
       </c>
     </row>
@@ -6022,7 +6089,7 @@
         <v>-3.3</v>
       </c>
       <c r="AD31" t="n">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="AE31" t="n">
         <v>28</v>
@@ -6052,7 +6119,7 @@
         <v>20</v>
       </c>
       <c r="AN31" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AO31" t="n">
         <v>26</v>
@@ -6067,7 +6134,7 @@
         <v>23</v>
       </c>
       <c r="AS31" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AT31" t="n">
         <v>7</v>
@@ -6097,7 +6164,7 @@
         <v>30</v>
       </c>
       <c r="BC31" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="BD31" t="n">
         <v>10</v>
@@ -6109,7 +6176,7 @@
       </c>
       <c r="BF31" t="inlineStr">
         <is>
-          <t>3-10-2012-13</t>
+          <t>2013-03-10</t>
         </is>
       </c>
     </row>
